--- a/spt/spt_processing_input_2.xlsx
+++ b/spt/spt_processing_input_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_Drive\Dev\GitHub\EAFIT_slope_stability\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/eamontoyaa_eafit_edu_co/Documents/EAMA/Dev/GitHub/data4testing/spt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B994FE8-3705-4D8C-BF12-07F72C073787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{4B994FE8-3705-4D8C-BF12-07F72C073787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{423E2B5E-3D49-4566-BDFE-098D095068D6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7008F4F0-F30C-4941-AFE3-8359CC08712A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7008F4F0-F30C-4941-AFE3-8359CC08712A}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
   <si>
     <t>Material</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Horizonte IC - Migmatita - Inf</t>
+  </si>
+  <si>
+    <t>Finos_(%)</t>
   </si>
 </sst>
 </file>
@@ -184,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,22 +484,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97243F2A-F833-4870-8595-53EB31C9E5F3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,8 +515,11 @@
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -530,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -546,8 +552,11 @@
       <c r="E3" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -563,8 +572,11 @@
       <c r="E4" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -581,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -597,8 +609,11 @@
       <c r="E6" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -614,8 +629,11 @@
       <c r="E7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -632,7 +650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -648,8 +666,11 @@
       <c r="E9" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -665,8 +686,11 @@
       <c r="E10" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -682,8 +706,11 @@
       <c r="E11" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -699,8 +726,11 @@
       <c r="E12" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -716,8 +746,11 @@
       <c r="E13" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -734,7 +767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -750,8 +783,11 @@
       <c r="E15" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -796,42 +832,42 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
